--- a/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW27.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW27.xlsx
@@ -3941,37 +3941,37 @@
         <v>101.0</v>
       </c>
       <c r="B102" t="n">
-        <v>0.6321000002286665</v>
+        <v>0.0</v>
       </c>
       <c r="C102" t="n">
-        <v>0.6321000002286665</v>
+        <v>0.0</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6321000002286665</v>
+        <v>0.0</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6321000002286665</v>
+        <v>0.0</v>
       </c>
       <c r="F102" t="n">
-        <v>0.6321000002286665</v>
+        <v>0.0</v>
       </c>
       <c r="G102" t="n">
-        <v>0.6321000002286665</v>
+        <v>0.0</v>
       </c>
       <c r="H102" t="n">
-        <v>0.6321000002286665</v>
+        <v>0.0</v>
       </c>
       <c r="I102" t="n">
-        <v>0.6321000002286665</v>
+        <v>0.0</v>
       </c>
       <c r="J102" t="n">
-        <v>0.6321000002286665</v>
+        <v>0.0</v>
       </c>
       <c r="K102" t="n">
-        <v>0.6321000002286665</v>
+        <v>0.0</v>
       </c>
       <c r="L102" t="n">
-        <v>0.6321000002286665</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="103">
@@ -4625,37 +4625,37 @@
         <v>119.0</v>
       </c>
       <c r="B120" t="n">
-        <v>0.9231749996535</v>
+        <v>0.0</v>
       </c>
       <c r="C120" t="n">
-        <v>0.9231749996535</v>
+        <v>0.0</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9231749996535</v>
+        <v>0.0</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9231749996535</v>
+        <v>0.0</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9231749996535</v>
+        <v>0.0</v>
       </c>
       <c r="G120" t="n">
-        <v>0.9231749996535</v>
+        <v>0.0</v>
       </c>
       <c r="H120" t="n">
-        <v>0.9231749996535</v>
+        <v>0.0</v>
       </c>
       <c r="I120" t="n">
-        <v>0.9231749996535</v>
+        <v>0.0</v>
       </c>
       <c r="J120" t="n">
-        <v>0.9231749996535</v>
+        <v>0.0</v>
       </c>
       <c r="K120" t="n">
-        <v>0.9231749996535</v>
+        <v>0.0</v>
       </c>
       <c r="L120" t="n">
-        <v>0.9231749996535</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="121">
@@ -9337,37 +9337,37 @@
         <v>243.0</v>
       </c>
       <c r="B244" t="n">
-        <v>1.876049999901</v>
+        <v>0.0</v>
       </c>
       <c r="C244" t="n">
-        <v>1.876049999901</v>
+        <v>0.0</v>
       </c>
       <c r="D244" t="n">
-        <v>1.876049999901</v>
+        <v>0.0</v>
       </c>
       <c r="E244" t="n">
-        <v>1.876049999901</v>
+        <v>0.0</v>
       </c>
       <c r="F244" t="n">
-        <v>1.876049999901</v>
+        <v>0.0</v>
       </c>
       <c r="G244" t="n">
-        <v>1.876049999901</v>
+        <v>0.0</v>
       </c>
       <c r="H244" t="n">
-        <v>1.876049999901</v>
+        <v>0.0</v>
       </c>
       <c r="I244" t="n">
-        <v>1.876049999901</v>
+        <v>0.0</v>
       </c>
       <c r="J244" t="n">
-        <v>1.876049999901</v>
+        <v>0.0</v>
       </c>
       <c r="K244" t="n">
-        <v>1.876049999901</v>
+        <v>0.0</v>
       </c>
       <c r="L244" t="n">
-        <v>1.876049999901</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="245">
@@ -9603,37 +9603,37 @@
         <v>250.0</v>
       </c>
       <c r="B251" t="n">
-        <v>0.6190333333006666</v>
+        <v>0.0</v>
       </c>
       <c r="C251" t="n">
-        <v>0.6190333333006666</v>
+        <v>0.0</v>
       </c>
       <c r="D251" t="n">
-        <v>0.6190333333006666</v>
+        <v>0.0</v>
       </c>
       <c r="E251" t="n">
-        <v>0.6190333333006666</v>
+        <v>0.0</v>
       </c>
       <c r="F251" t="n">
-        <v>0.6190333333006666</v>
+        <v>0.0</v>
       </c>
       <c r="G251" t="n">
-        <v>0.6190333333006666</v>
+        <v>0.0</v>
       </c>
       <c r="H251" t="n">
-        <v>0.6190333333006666</v>
+        <v>0.0</v>
       </c>
       <c r="I251" t="n">
-        <v>0.6190333333006666</v>
+        <v>0.0</v>
       </c>
       <c r="J251" t="n">
-        <v>0.6190333333006666</v>
+        <v>0.0</v>
       </c>
       <c r="K251" t="n">
-        <v>0.6190333333006666</v>
+        <v>0.0</v>
       </c>
       <c r="L251" t="n">
-        <v>0.6190333333006666</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="252">
@@ -10287,37 +10287,37 @@
         <v>268.0</v>
       </c>
       <c r="B269" t="n">
-        <v>0.33681973678849997</v>
+        <v>0.0</v>
       </c>
       <c r="C269" t="n">
-        <v>0.33681973678849997</v>
+        <v>0.0</v>
       </c>
       <c r="D269" t="n">
-        <v>0.33681973678849997</v>
+        <v>0.0</v>
       </c>
       <c r="E269" t="n">
-        <v>0.33681973678849997</v>
+        <v>0.0</v>
       </c>
       <c r="F269" t="n">
-        <v>0.33681973678849997</v>
+        <v>0.0</v>
       </c>
       <c r="G269" t="n">
-        <v>0.33681973678849997</v>
+        <v>0.0</v>
       </c>
       <c r="H269" t="n">
-        <v>0.33681973678849997</v>
+        <v>0.0</v>
       </c>
       <c r="I269" t="n">
-        <v>0.33681973678849997</v>
+        <v>0.0</v>
       </c>
       <c r="J269" t="n">
-        <v>0.33681973678849997</v>
+        <v>0.0</v>
       </c>
       <c r="K269" t="n">
-        <v>0.33681973678849997</v>
+        <v>0.0</v>
       </c>
       <c r="L269" t="n">
-        <v>0.33681973678849997</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="270">
@@ -12035,37 +12035,37 @@
         <v>314.0</v>
       </c>
       <c r="B315" t="n">
-        <v>0.309600000112</v>
+        <v>0.0</v>
       </c>
       <c r="C315" t="n">
-        <v>0.309600000112</v>
+        <v>0.0</v>
       </c>
       <c r="D315" t="n">
-        <v>0.309600000112</v>
+        <v>0.0</v>
       </c>
       <c r="E315" t="n">
-        <v>0.309600000112</v>
+        <v>0.0</v>
       </c>
       <c r="F315" t="n">
-        <v>0.309600000112</v>
+        <v>0.0</v>
       </c>
       <c r="G315" t="n">
-        <v>0.309600000112</v>
+        <v>0.0</v>
       </c>
       <c r="H315" t="n">
-        <v>0.309600000112</v>
+        <v>0.0</v>
       </c>
       <c r="I315" t="n">
-        <v>0.309600000112</v>
+        <v>0.0</v>
       </c>
       <c r="J315" t="n">
-        <v>0.309600000112</v>
+        <v>0.0</v>
       </c>
       <c r="K315" t="n">
-        <v>0.309600000112</v>
+        <v>0.0</v>
       </c>
       <c r="L315" t="n">
-        <v>0.309600000112</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="316">
@@ -12453,37 +12453,37 @@
         <v>325.0</v>
       </c>
       <c r="B326" t="n">
-        <v>1.0750618417770001</v>
+        <v>0.0</v>
       </c>
       <c r="C326" t="n">
-        <v>1.0750618417770001</v>
+        <v>0.0</v>
       </c>
       <c r="D326" t="n">
-        <v>1.0750618417770001</v>
+        <v>0.0</v>
       </c>
       <c r="E326" t="n">
-        <v>1.0750618417770001</v>
+        <v>0.0</v>
       </c>
       <c r="F326" t="n">
-        <v>1.0750618417770001</v>
+        <v>0.0</v>
       </c>
       <c r="G326" t="n">
-        <v>1.0750618417770001</v>
+        <v>0.0</v>
       </c>
       <c r="H326" t="n">
-        <v>1.0750618417770001</v>
+        <v>0.0</v>
       </c>
       <c r="I326" t="n">
-        <v>1.0750618417770001</v>
+        <v>0.0</v>
       </c>
       <c r="J326" t="n">
-        <v>1.0750618417770001</v>
+        <v>0.0</v>
       </c>
       <c r="K326" t="n">
-        <v>1.0750618417770001</v>
+        <v>0.0</v>
       </c>
       <c r="L326" t="n">
-        <v>1.0750618417770001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="327">
@@ -12491,37 +12491,37 @@
         <v>326.0</v>
       </c>
       <c r="B327" t="n">
-        <v>0.343874999895</v>
+        <v>0.0</v>
       </c>
       <c r="C327" t="n">
-        <v>0.343874999895</v>
+        <v>0.0</v>
       </c>
       <c r="D327" t="n">
-        <v>0.343874999895</v>
+        <v>0.0</v>
       </c>
       <c r="E327" t="n">
-        <v>0.343874999895</v>
+        <v>0.0</v>
       </c>
       <c r="F327" t="n">
-        <v>0.343874999895</v>
+        <v>0.0</v>
       </c>
       <c r="G327" t="n">
-        <v>0.343874999895</v>
+        <v>0.0</v>
       </c>
       <c r="H327" t="n">
-        <v>0.343874999895</v>
+        <v>0.0</v>
       </c>
       <c r="I327" t="n">
-        <v>0.343874999895</v>
+        <v>0.0</v>
       </c>
       <c r="J327" t="n">
-        <v>0.343874999895</v>
+        <v>0.0</v>
       </c>
       <c r="K327" t="n">
-        <v>0.343874999895</v>
+        <v>0.0</v>
       </c>
       <c r="L327" t="n">
-        <v>0.343874999895</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="328">
@@ -13365,37 +13365,37 @@
         <v>349.0</v>
       </c>
       <c r="B350" t="n">
-        <v>0.913849999657</v>
+        <v>0.0</v>
       </c>
       <c r="C350" t="n">
-        <v>0.913849999657</v>
+        <v>0.0</v>
       </c>
       <c r="D350" t="n">
-        <v>0.913849999657</v>
+        <v>0.0</v>
       </c>
       <c r="E350" t="n">
-        <v>0.913849999657</v>
+        <v>0.0</v>
       </c>
       <c r="F350" t="n">
-        <v>0.913849999657</v>
+        <v>0.0</v>
       </c>
       <c r="G350" t="n">
-        <v>0.913849999657</v>
+        <v>0.0</v>
       </c>
       <c r="H350" t="n">
-        <v>0.913849999657</v>
+        <v>0.0</v>
       </c>
       <c r="I350" t="n">
-        <v>0.913849999657</v>
+        <v>0.0</v>
       </c>
       <c r="J350" t="n">
-        <v>0.913849999657</v>
+        <v>0.0</v>
       </c>
       <c r="K350" t="n">
-        <v>0.913849999657</v>
+        <v>0.0</v>
       </c>
       <c r="L350" t="n">
-        <v>0.913849999657</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="351">
@@ -13479,37 +13479,37 @@
         <v>352.0</v>
       </c>
       <c r="B353" t="n">
-        <v>1.8649999993</v>
+        <v>0.0</v>
       </c>
       <c r="C353" t="n">
-        <v>1.8649999993</v>
+        <v>0.0</v>
       </c>
       <c r="D353" t="n">
-        <v>1.8649999993</v>
+        <v>0.0</v>
       </c>
       <c r="E353" t="n">
-        <v>1.8649999993</v>
+        <v>0.0</v>
       </c>
       <c r="F353" t="n">
-        <v>1.8649999993</v>
+        <v>0.0</v>
       </c>
       <c r="G353" t="n">
-        <v>1.8649999993</v>
+        <v>0.0</v>
       </c>
       <c r="H353" t="n">
-        <v>1.8649999993</v>
+        <v>0.0</v>
       </c>
       <c r="I353" t="n">
-        <v>1.8649999993</v>
+        <v>0.0</v>
       </c>
       <c r="J353" t="n">
-        <v>1.8649999993</v>
+        <v>0.0</v>
       </c>
       <c r="K353" t="n">
-        <v>1.8649999993</v>
+        <v>0.0</v>
       </c>
       <c r="L353" t="n">
-        <v>1.8649999993</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="354">
@@ -13783,37 +13783,37 @@
         <v>360.0</v>
       </c>
       <c r="B361" t="n">
-        <v>0.6878052631939999</v>
+        <v>0.0</v>
       </c>
       <c r="C361" t="n">
-        <v>0.6878052631939999</v>
+        <v>0.0</v>
       </c>
       <c r="D361" t="n">
-        <v>0.6878052631939999</v>
+        <v>0.0</v>
       </c>
       <c r="E361" t="n">
-        <v>0.6878052631939999</v>
+        <v>0.0</v>
       </c>
       <c r="F361" t="n">
-        <v>0.6878052631939999</v>
+        <v>0.0</v>
       </c>
       <c r="G361" t="n">
-        <v>0.6878052631939999</v>
+        <v>0.0</v>
       </c>
       <c r="H361" t="n">
-        <v>0.6878052631939999</v>
+        <v>0.0</v>
       </c>
       <c r="I361" t="n">
-        <v>0.6878052631939999</v>
+        <v>0.0</v>
       </c>
       <c r="J361" t="n">
-        <v>0.6878052631939999</v>
+        <v>0.0</v>
       </c>
       <c r="K361" t="n">
-        <v>0.6878052631939999</v>
+        <v>0.0</v>
       </c>
       <c r="L361" t="n">
-        <v>0.6878052631939999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="362">
@@ -15493,37 +15493,37 @@
         <v>405.0</v>
       </c>
       <c r="B406" t="n">
-        <v>0.7202999999999999</v>
+        <v>0.0</v>
       </c>
       <c r="C406" t="n">
-        <v>0.7202999999999999</v>
+        <v>0.0</v>
       </c>
       <c r="D406" t="n">
-        <v>0.7202999999999999</v>
+        <v>0.0</v>
       </c>
       <c r="E406" t="n">
-        <v>0.7202999999999999</v>
+        <v>0.0</v>
       </c>
       <c r="F406" t="n">
-        <v>0.7202999999999999</v>
+        <v>0.0</v>
       </c>
       <c r="G406" t="n">
-        <v>0.7202999999999999</v>
+        <v>0.0</v>
       </c>
       <c r="H406" t="n">
-        <v>0.7202999999999999</v>
+        <v>0.0</v>
       </c>
       <c r="I406" t="n">
-        <v>0.7202999999999999</v>
+        <v>0.0</v>
       </c>
       <c r="J406" t="n">
-        <v>0.7202999999999999</v>
+        <v>0.0</v>
       </c>
       <c r="K406" t="n">
-        <v>0.7202999999999999</v>
+        <v>0.0</v>
       </c>
       <c r="L406" t="n">
-        <v>0.7202999999999999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="407">
@@ -15835,37 +15835,37 @@
         <v>414.0</v>
       </c>
       <c r="B415" t="n">
-        <v>1.80075</v>
+        <v>0.0</v>
       </c>
       <c r="C415" t="n">
-        <v>1.80075</v>
+        <v>0.0</v>
       </c>
       <c r="D415" t="n">
-        <v>1.80075</v>
+        <v>0.0</v>
       </c>
       <c r="E415" t="n">
-        <v>1.80075</v>
+        <v>0.0</v>
       </c>
       <c r="F415" t="n">
-        <v>1.80075</v>
+        <v>0.0</v>
       </c>
       <c r="G415" t="n">
-        <v>1.80075</v>
+        <v>0.0</v>
       </c>
       <c r="H415" t="n">
-        <v>1.80075</v>
+        <v>0.0</v>
       </c>
       <c r="I415" t="n">
-        <v>1.80075</v>
+        <v>0.0</v>
       </c>
       <c r="J415" t="n">
-        <v>1.80075</v>
+        <v>0.0</v>
       </c>
       <c r="K415" t="n">
-        <v>1.80075</v>
+        <v>0.0</v>
       </c>
       <c r="L415" t="n">
-        <v>1.80075</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="416">
@@ -16025,37 +16025,37 @@
         <v>419.0</v>
       </c>
       <c r="B420" t="n">
-        <v>0.6285833332699999</v>
+        <v>0.0</v>
       </c>
       <c r="C420" t="n">
-        <v>0.6285833332699999</v>
+        <v>0.0</v>
       </c>
       <c r="D420" t="n">
-        <v>0.6285833332699999</v>
+        <v>0.0</v>
       </c>
       <c r="E420" t="n">
-        <v>0.6285833332699999</v>
+        <v>0.0</v>
       </c>
       <c r="F420" t="n">
-        <v>0.6285833332699999</v>
+        <v>0.0</v>
       </c>
       <c r="G420" t="n">
-        <v>0.6285833332699999</v>
+        <v>0.0</v>
       </c>
       <c r="H420" t="n">
-        <v>0.6285833332699999</v>
+        <v>0.0</v>
       </c>
       <c r="I420" t="n">
-        <v>0.6285833332699999</v>
+        <v>0.0</v>
       </c>
       <c r="J420" t="n">
-        <v>0.6285833332699999</v>
+        <v>0.0</v>
       </c>
       <c r="K420" t="n">
-        <v>0.6285833332699999</v>
+        <v>0.0</v>
       </c>
       <c r="L420" t="n">
-        <v>0.6285833332699999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="421">
@@ -18039,37 +18039,37 @@
         <v>472.0</v>
       </c>
       <c r="B473" t="n">
-        <v>2.007876316446</v>
+        <v>0.0</v>
       </c>
       <c r="C473" t="n">
-        <v>2.007876316446</v>
+        <v>0.0</v>
       </c>
       <c r="D473" t="n">
-        <v>2.007876316446</v>
+        <v>0.0</v>
       </c>
       <c r="E473" t="n">
-        <v>2.007876316446</v>
+        <v>0.0</v>
       </c>
       <c r="F473" t="n">
-        <v>2.007876316446</v>
+        <v>0.0</v>
       </c>
       <c r="G473" t="n">
-        <v>2.007876316446</v>
+        <v>0.0</v>
       </c>
       <c r="H473" t="n">
-        <v>2.007876316446</v>
+        <v>0.0</v>
       </c>
       <c r="I473" t="n">
-        <v>2.007876316446</v>
+        <v>0.0</v>
       </c>
       <c r="J473" t="n">
-        <v>2.007876316446</v>
+        <v>0.0</v>
       </c>
       <c r="K473" t="n">
-        <v>2.007876316446</v>
+        <v>0.0</v>
       </c>
       <c r="L473" t="n">
-        <v>2.007876316446</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="474">
@@ -19027,37 +19027,37 @@
         <v>498.0</v>
       </c>
       <c r="B499" t="n">
-        <v>0.9380249999505</v>
+        <v>0.0</v>
       </c>
       <c r="C499" t="n">
-        <v>0.9380249999505</v>
+        <v>0.0</v>
       </c>
       <c r="D499" t="n">
-        <v>0.9380249999505</v>
+        <v>0.0</v>
       </c>
       <c r="E499" t="n">
-        <v>0.9380249999505</v>
+        <v>0.0</v>
       </c>
       <c r="F499" t="n">
-        <v>0.9380249999505</v>
+        <v>0.0</v>
       </c>
       <c r="G499" t="n">
-        <v>0.9380249999505</v>
+        <v>0.0</v>
       </c>
       <c r="H499" t="n">
-        <v>0.9380249999505</v>
+        <v>0.0</v>
       </c>
       <c r="I499" t="n">
-        <v>0.9380249999505</v>
+        <v>0.0</v>
       </c>
       <c r="J499" t="n">
-        <v>0.9380249999505</v>
+        <v>0.0</v>
       </c>
       <c r="K499" t="n">
-        <v>0.9380249999505</v>
+        <v>0.0</v>
       </c>
       <c r="L499" t="n">
-        <v>0.9380249999505</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="500">
@@ -19749,37 +19749,37 @@
         <v>517.0</v>
       </c>
       <c r="B518" t="n">
-        <v>0.2888</v>
+        <v>0.0</v>
       </c>
       <c r="C518" t="n">
-        <v>0.2888</v>
+        <v>0.0</v>
       </c>
       <c r="D518" t="n">
-        <v>0.2888</v>
+        <v>0.0</v>
       </c>
       <c r="E518" t="n">
-        <v>0.2888</v>
+        <v>0.0</v>
       </c>
       <c r="F518" t="n">
-        <v>0.2888</v>
+        <v>0.0</v>
       </c>
       <c r="G518" t="n">
-        <v>0.2888</v>
+        <v>0.0</v>
       </c>
       <c r="H518" t="n">
-        <v>0.2888</v>
+        <v>0.0</v>
       </c>
       <c r="I518" t="n">
-        <v>0.2888</v>
+        <v>0.0</v>
       </c>
       <c r="J518" t="n">
-        <v>0.2888</v>
+        <v>0.0</v>
       </c>
       <c r="K518" t="n">
-        <v>0.2888</v>
+        <v>0.0</v>
       </c>
       <c r="L518" t="n">
-        <v>0.2888</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="519">
@@ -20281,37 +20281,37 @@
         <v>531.0</v>
       </c>
       <c r="B532" t="n">
-        <v>1.020876315627</v>
+        <v>0.0</v>
       </c>
       <c r="C532" t="n">
-        <v>1.020876315627</v>
+        <v>0.0</v>
       </c>
       <c r="D532" t="n">
-        <v>1.020876315627</v>
+        <v>0.0</v>
       </c>
       <c r="E532" t="n">
-        <v>1.020876315627</v>
+        <v>0.0</v>
       </c>
       <c r="F532" t="n">
-        <v>1.020876315627</v>
+        <v>0.0</v>
       </c>
       <c r="G532" t="n">
-        <v>1.020876315627</v>
+        <v>0.0</v>
       </c>
       <c r="H532" t="n">
-        <v>1.020876315627</v>
+        <v>0.0</v>
       </c>
       <c r="I532" t="n">
-        <v>1.020876315627</v>
+        <v>0.0</v>
       </c>
       <c r="J532" t="n">
-        <v>1.020876315627</v>
+        <v>0.0</v>
       </c>
       <c r="K532" t="n">
-        <v>1.020876315627</v>
+        <v>0.0</v>
       </c>
       <c r="L532" t="n">
-        <v>1.020876315627</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="533">
@@ -20395,37 +20395,37 @@
         <v>534.0</v>
       </c>
       <c r="B535" t="n">
-        <v>0.680584210418</v>
+        <v>0.0</v>
       </c>
       <c r="C535" t="n">
-        <v>0.680584210418</v>
+        <v>0.0</v>
       </c>
       <c r="D535" t="n">
-        <v>0.680584210418</v>
+        <v>0.0</v>
       </c>
       <c r="E535" t="n">
-        <v>0.680584210418</v>
+        <v>0.0</v>
       </c>
       <c r="F535" t="n">
-        <v>0.680584210418</v>
+        <v>0.0</v>
       </c>
       <c r="G535" t="n">
-        <v>0.680584210418</v>
+        <v>0.0</v>
       </c>
       <c r="H535" t="n">
-        <v>0.680584210418</v>
+        <v>0.0</v>
       </c>
       <c r="I535" t="n">
-        <v>0.680584210418</v>
+        <v>0.0</v>
       </c>
       <c r="J535" t="n">
-        <v>0.680584210418</v>
+        <v>0.0</v>
       </c>
       <c r="K535" t="n">
-        <v>0.680584210418</v>
+        <v>0.0</v>
       </c>
       <c r="L535" t="n">
-        <v>0.680584210418</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="536">
@@ -21953,37 +21953,37 @@
         <v>575.0</v>
       </c>
       <c r="B576" t="n">
-        <v>1.2576666669933332</v>
+        <v>0.0</v>
       </c>
       <c r="C576" t="n">
-        <v>1.2576666669933332</v>
+        <v>0.0</v>
       </c>
       <c r="D576" t="n">
-        <v>1.2576666669933332</v>
+        <v>0.0</v>
       </c>
       <c r="E576" t="n">
-        <v>1.2576666669933332</v>
+        <v>0.0</v>
       </c>
       <c r="F576" t="n">
-        <v>1.2576666669933332</v>
+        <v>0.0</v>
       </c>
       <c r="G576" t="n">
-        <v>1.2576666669933332</v>
+        <v>0.0</v>
       </c>
       <c r="H576" t="n">
-        <v>1.2576666669933332</v>
+        <v>0.0</v>
       </c>
       <c r="I576" t="n">
-        <v>1.2576666669933332</v>
+        <v>0.0</v>
       </c>
       <c r="J576" t="n">
-        <v>1.2576666669933332</v>
+        <v>0.0</v>
       </c>
       <c r="K576" t="n">
-        <v>1.2576666669933332</v>
+        <v>0.0</v>
       </c>
       <c r="L576" t="n">
-        <v>1.2576666669933332</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="577">
@@ -22827,37 +22827,37 @@
         <v>598.0</v>
       </c>
       <c r="B599" t="n">
-        <v>1.3447368424</v>
+        <v>0.0</v>
       </c>
       <c r="C599" t="n">
-        <v>1.3447368424</v>
+        <v>0.0</v>
       </c>
       <c r="D599" t="n">
-        <v>1.3447368424</v>
+        <v>0.0</v>
       </c>
       <c r="E599" t="n">
-        <v>1.3447368424</v>
+        <v>0.0</v>
       </c>
       <c r="F599" t="n">
-        <v>1.3447368424</v>
+        <v>0.0</v>
       </c>
       <c r="G599" t="n">
-        <v>1.3447368424</v>
+        <v>0.0</v>
       </c>
       <c r="H599" t="n">
-        <v>1.3447368424</v>
+        <v>0.0</v>
       </c>
       <c r="I599" t="n">
-        <v>1.3447368424</v>
+        <v>0.0</v>
       </c>
       <c r="J599" t="n">
-        <v>1.3447368424</v>
+        <v>0.0</v>
       </c>
       <c r="K599" t="n">
-        <v>1.3447368424</v>
+        <v>0.0</v>
       </c>
       <c r="L599" t="n">
-        <v>1.3447368424</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="600">
@@ -22979,37 +22979,37 @@
         <v>602.0</v>
       </c>
       <c r="B603" t="n">
-        <v>0.963375000315</v>
+        <v>0.0</v>
       </c>
       <c r="C603" t="n">
-        <v>0.963375000315</v>
+        <v>0.0</v>
       </c>
       <c r="D603" t="n">
-        <v>0.963375000315</v>
+        <v>0.0</v>
       </c>
       <c r="E603" t="n">
-        <v>0.963375000315</v>
+        <v>0.0</v>
       </c>
       <c r="F603" t="n">
-        <v>0.963375000315</v>
+        <v>0.0</v>
       </c>
       <c r="G603" t="n">
-        <v>0.963375000315</v>
+        <v>0.0</v>
       </c>
       <c r="H603" t="n">
-        <v>0.963375000315</v>
+        <v>0.0</v>
       </c>
       <c r="I603" t="n">
-        <v>0.963375000315</v>
+        <v>0.0</v>
       </c>
       <c r="J603" t="n">
-        <v>0.963375000315</v>
+        <v>0.0</v>
       </c>
       <c r="K603" t="n">
-        <v>0.963375000315</v>
+        <v>0.0</v>
       </c>
       <c r="L603" t="n">
-        <v>0.963375000315</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="604">
